--- a/2_Jan_2024_sd_Feb_2024/Timesheet Danamon-Bayu Bagus Bagaswara-January.xlsx
+++ b/2_Jan_2024_sd_Feb_2024/Timesheet Danamon-Bayu Bagus Bagaswara-January.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bayub\Projects Bayu\timesheet-danamon\2_Jan_2024_sd_Feb_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2718DE-6606-4246-A4F3-13C1F0F679E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A9A0E2-C063-4484-ABF4-DD8FA2D2D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>TIME SHEET</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Bayu Bagus Bagaswara</t>
   </si>
   <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
     <t>Pengenalan dan pemahaman sistem CSA</t>
   </si>
   <si>
@@ -190,7 +187,7 @@
     <t>Pengembangan fitur Billing</t>
   </si>
   <si>
-    <t>December-January</t>
+    <t>January-February</t>
   </si>
 </sst>
 </file>
@@ -518,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -639,22 +636,12 @@
     <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,11 +693,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,10 +1094,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EQ21"/>
+  <dimension ref="A1:EQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
@@ -1201,10 +1197,10 @@
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="68" t="s">
+      <c r="S5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="69"/>
+      <c r="T5" s="65"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10" t="s">
         <v>24</v>
@@ -1233,45 +1229,45 @@
       <c r="B6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="73" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="69">
+        <v>2024</v>
+      </c>
+      <c r="T6" s="70"/>
+      <c r="U6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="74"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="70"/>
       <c r="AA6" s="25"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
       <c r="AH6" s="26"/>
       <c r="AI6" s="22"/>
       <c r="AJ6" s="22"/>
@@ -1416,7 +1412,7 @@
       <c r="AG8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AH8" s="60" t="s">
+      <c r="AH8" s="56" t="s">
         <v>16</v>
       </c>
       <c r="AI8" s="32" t="s">
@@ -1429,97 +1425,97 @@
     <row r="9" spans="1:147" ht="21.75" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="54">
+      <c r="C9" s="53">
         <v>20</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="53">
         <v>21</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <v>22</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="53">
         <v>23</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="53">
         <v>24</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="53">
         <v>25</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="53">
         <v>26</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="53">
         <v>27</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="53">
         <v>28</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="53">
         <v>29</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="53">
         <v>30</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N9" s="53">
         <v>31</v>
       </c>
-      <c r="O9" s="54">
-        <v>1</v>
-      </c>
-      <c r="P9" s="54">
+      <c r="O9" s="53">
+        <v>1</v>
+      </c>
+      <c r="P9" s="53">
         <v>2</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9" s="53">
         <v>3</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="53">
         <v>4</v>
       </c>
-      <c r="S9" s="54">
+      <c r="S9" s="53">
         <v>5</v>
       </c>
-      <c r="T9" s="54">
+      <c r="T9" s="53">
         <v>6</v>
       </c>
-      <c r="U9" s="54">
+      <c r="U9" s="53">
         <v>7</v>
       </c>
-      <c r="V9" s="54">
+      <c r="V9" s="53">
         <v>8</v>
       </c>
-      <c r="W9" s="54">
+      <c r="W9" s="53">
         <v>9</v>
       </c>
-      <c r="X9" s="54">
+      <c r="X9" s="53">
         <v>10</v>
       </c>
-      <c r="Y9" s="54">
+      <c r="Y9" s="53">
         <v>11</v>
       </c>
-      <c r="Z9" s="54">
+      <c r="Z9" s="53">
         <v>12</v>
       </c>
-      <c r="AA9" s="54">
+      <c r="AA9" s="53">
         <v>13</v>
       </c>
-      <c r="AB9" s="54">
+      <c r="AB9" s="53">
         <v>14</v>
       </c>
-      <c r="AC9" s="54">
+      <c r="AC9" s="53">
         <v>15</v>
       </c>
-      <c r="AD9" s="54">
+      <c r="AD9" s="53">
         <v>16</v>
       </c>
-      <c r="AE9" s="54">
+      <c r="AE9" s="53">
         <v>17</v>
       </c>
-      <c r="AF9" s="54">
+      <c r="AF9" s="53">
         <v>18</v>
       </c>
-      <c r="AG9" s="54">
+      <c r="AG9" s="53">
         <v>19</v>
       </c>
       <c r="AH9" s="51"/>
@@ -1531,45 +1527,81 @@
       <c r="B10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="47"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="55">
+        <v>1</v>
+      </c>
+      <c r="F10" s="47">
+        <v>1</v>
+      </c>
+      <c r="G10" s="47">
+        <v>1</v>
+      </c>
+      <c r="H10" s="47">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47">
+        <v>1</v>
+      </c>
+      <c r="J10" s="47">
+        <v>1</v>
+      </c>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="47">
+        <v>1</v>
+      </c>
+      <c r="N10" s="47">
+        <v>1</v>
+      </c>
+      <c r="O10" s="47">
+        <v>1</v>
+      </c>
+      <c r="P10" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="47">
+        <v>1</v>
+      </c>
+      <c r="T10" s="47">
+        <v>1</v>
+      </c>
+      <c r="U10" s="47">
+        <v>1</v>
+      </c>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="47">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="47">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="47">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="47">
+        <v>1</v>
+      </c>
       <c r="AH10" s="48">
         <f>SUM(C10:AG10)</f>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AJ10" s="63"/>
+      <c r="AJ10" s="59"/>
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
@@ -1684,308 +1716,362 @@
     </row>
     <row r="11" spans="1:147" s="4" customFormat="1" ht="33" customHeight="1">
       <c r="A11" s="38"/>
-      <c r="B11" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="76"/>
+      <c r="B11" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="49"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="49"/>
       <c r="N11" s="48"/>
       <c r="O11" s="48"/>
       <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
       <c r="S11" s="48"/>
       <c r="T11" s="48"/>
       <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
       <c r="Z11" s="48"/>
       <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
+      <c r="AB11" s="72"/>
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
       <c r="AG11" s="48"/>
       <c r="AH11" s="48">
         <f>SUM(C11:AG11)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="64"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="60"/>
     </row>
     <row r="12" spans="1:147" s="4" customFormat="1" ht="33" customHeight="1">
       <c r="A12" s="39"/>
-      <c r="B12" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
+      <c r="B12" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="55">
+        <v>2</v>
+      </c>
+      <c r="F12" s="48">
+        <v>2</v>
+      </c>
+      <c r="G12" s="48">
+        <v>2</v>
+      </c>
+      <c r="H12" s="48">
+        <v>2</v>
+      </c>
+      <c r="I12" s="48">
+        <v>2</v>
+      </c>
+      <c r="J12" s="48">
+        <v>2</v>
+      </c>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="48">
+        <v>2</v>
+      </c>
+      <c r="N12" s="48">
+        <v>2</v>
+      </c>
+      <c r="O12" s="48">
+        <v>2</v>
+      </c>
+      <c r="P12" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="48">
+        <v>2</v>
+      </c>
+      <c r="T12" s="48">
+        <v>2</v>
+      </c>
+      <c r="U12" s="48">
+        <v>2</v>
+      </c>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
       <c r="Z12" s="48"/>
       <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
+      <c r="AB12" s="72"/>
       <c r="AC12" s="48"/>
       <c r="AD12" s="48"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
       <c r="AG12" s="48"/>
       <c r="AH12" s="48">
         <f>SUM(C12:AG12)</f>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="64"/>
+        <v>26</v>
+      </c>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="60"/>
     </row>
     <row r="13" spans="1:147" s="4" customFormat="1" ht="33" customHeight="1">
       <c r="A13" s="39"/>
-      <c r="B13" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
       <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
+      <c r="T13" s="48">
+        <v>2</v>
+      </c>
       <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
       <c r="Z13" s="48"/>
       <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
+      <c r="AB13" s="72"/>
       <c r="AC13" s="48"/>
       <c r="AD13" s="48"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
       <c r="AG13" s="48"/>
       <c r="AH13" s="48">
         <f>SUM(C13:AG13)</f>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="64"/>
+        <v>2</v>
+      </c>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="60"/>
     </row>
     <row r="14" spans="1:147" s="4" customFormat="1" ht="33" customHeight="1">
       <c r="A14" s="39"/>
-      <c r="B14" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
+      <c r="B14" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="55">
+        <v>5</v>
+      </c>
+      <c r="F14" s="48">
+        <v>5</v>
+      </c>
+      <c r="G14" s="48">
+        <v>5</v>
+      </c>
+      <c r="H14" s="48">
+        <v>5</v>
+      </c>
+      <c r="I14" s="48">
+        <v>5</v>
+      </c>
+      <c r="J14" s="48">
+        <v>5</v>
+      </c>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="48">
+        <v>5</v>
+      </c>
+      <c r="N14" s="48">
+        <v>5</v>
+      </c>
+      <c r="O14" s="48">
+        <v>5</v>
+      </c>
+      <c r="P14" s="48">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="48">
+        <v>5</v>
+      </c>
+      <c r="T14" s="48">
+        <v>3</v>
+      </c>
+      <c r="U14" s="48">
+        <v>5</v>
+      </c>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
       <c r="Z14" s="48"/>
       <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
+      <c r="AB14" s="72"/>
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
       <c r="AG14" s="48"/>
       <c r="AH14" s="48">
         <f>SUM(C14:AF14)</f>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="64"/>
+        <v>63</v>
+      </c>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="60"/>
     </row>
     <row r="15" spans="1:147" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A15" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="59">
+      <c r="C15" s="73">
         <f t="shared" ref="C15:AG15" si="0">SUM(C10:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="54">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="50">
+      <c r="L15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="50">
+      <c r="M15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="50">
+      <c r="R15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="50">
+      <c r="S15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="T15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U15" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="50">
+      <c r="W15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="50">
+      <c r="X15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="50">
+      <c r="Y15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="50">
+      <c r="Z15" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="50">
+      <c r="AC15" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="50">
+      <c r="AF15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AG15" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="50">
         <f>SUM(C15:AG15)</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AI15" s="42"/>
       <c r="AJ15" s="43"/>
@@ -2008,8 +2094,8 @@
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
       <c r="R16" s="45"/>
       <c r="S16" s="45"/>
       <c r="T16" s="45"/>
@@ -2019,18 +2105,10 @@
       <c r="X16" s="45"/>
       <c r="Y16" s="45"/>
       <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
+      <c r="AA16" s="46"/>
       <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="45"/>
     </row>
-    <row r="17" spans="1:40" ht="14.5">
+    <row r="17" spans="1:32" ht="14.5">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2045,19 +2123,15 @@
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:40">
-      <c r="AN18" s="23"/>
+    <row r="18" spans="1:32">
+      <c r="AF18" s="23"/>
     </row>
-    <row r="19" spans="1:40">
-      <c r="AN19" s="24"/>
+    <row r="19" spans="1:32">
+      <c r="AF19" s="24"/>
     </row>
-    <row r="20" spans="1:40" ht="12.75" customHeight="1">
-      <c r="AN20" s="24"/>
-    </row>
-    <row r="21" spans="1:40" ht="15.5">
-      <c r="U21" s="55"/>
+    <row r="20" spans="1:32" ht="12.75" customHeight="1">
+      <c r="AF20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/2_Jan_2024_sd_Feb_2024/Timesheet Danamon-Bayu Bagus Bagaswara-January.xlsx
+++ b/2_Jan_2024_sd_Feb_2024/Timesheet Danamon-Bayu Bagus Bagaswara-January.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bayub\Projects Bayu\timesheet-danamon\2_Jan_2024_sd_Feb_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A9A0E2-C063-4484-ABF4-DD8FA2D2D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A7D6EC-D458-4D8C-8795-82F90C23B24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$AJ$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$AJ$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>TIME SHEET</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Bayu Bagus Bagaswara</t>
-  </si>
-  <si>
-    <t>Pengenalan dan pemahaman sistem CSA</t>
   </si>
   <si>
     <t>Diskusi alur bisnis Billing dengan User</t>
@@ -515,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,9 +597,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -627,9 +621,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,6 +642,18 @@
     <xf numFmtId="49" fontId="14" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -691,21 +694,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1094,10 +1082,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EQ20"/>
+  <dimension ref="A1:EQ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
@@ -1197,10 +1185,10 @@
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="65"/>
+      <c r="T5" s="67"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10" t="s">
         <v>24</v>
@@ -1229,45 +1217,45 @@
       <c r="B6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="69">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="71">
         <v>2024</v>
       </c>
-      <c r="T6" s="70"/>
-      <c r="U6" s="69" t="s">
+      <c r="T6" s="72"/>
+      <c r="U6" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="70"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="72"/>
       <c r="AA6" s="25"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
       <c r="AH6" s="26"/>
       <c r="AI6" s="22"/>
       <c r="AJ6" s="22"/>
@@ -1412,7 +1400,7 @@
       <c r="AG8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AH8" s="56" t="s">
+      <c r="AH8" s="54" t="s">
         <v>16</v>
       </c>
       <c r="AI8" s="32" t="s">
@@ -1425,100 +1413,100 @@
     <row r="9" spans="1:147" ht="21.75" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="53">
+      <c r="C9" s="51">
         <v>20</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="51">
         <v>21</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="51">
         <v>22</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="51">
         <v>23</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="51">
         <v>24</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="51">
         <v>25</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="51">
         <v>26</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="51">
         <v>27</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="51">
         <v>28</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="51">
         <v>29</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="51">
         <v>30</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N9" s="51">
         <v>31</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="51">
         <v>1</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="51">
         <v>2</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="Q9" s="51">
         <v>3</v>
       </c>
-      <c r="R9" s="53">
+      <c r="R9" s="51">
         <v>4</v>
       </c>
-      <c r="S9" s="53">
+      <c r="S9" s="51">
         <v>5</v>
       </c>
-      <c r="T9" s="53">
+      <c r="T9" s="51">
         <v>6</v>
       </c>
-      <c r="U9" s="53">
+      <c r="U9" s="51">
         <v>7</v>
       </c>
-      <c r="V9" s="53">
+      <c r="V9" s="51">
         <v>8</v>
       </c>
-      <c r="W9" s="53">
+      <c r="W9" s="51">
         <v>9</v>
       </c>
-      <c r="X9" s="53">
+      <c r="X9" s="51">
         <v>10</v>
       </c>
-      <c r="Y9" s="53">
+      <c r="Y9" s="51">
         <v>11</v>
       </c>
-      <c r="Z9" s="53">
+      <c r="Z9" s="51">
         <v>12</v>
       </c>
-      <c r="AA9" s="53">
+      <c r="AA9" s="51">
         <v>13</v>
       </c>
-      <c r="AB9" s="53">
+      <c r="AB9" s="51">
         <v>14</v>
       </c>
-      <c r="AC9" s="53">
+      <c r="AC9" s="51">
         <v>15</v>
       </c>
-      <c r="AD9" s="53">
+      <c r="AD9" s="51">
         <v>16</v>
       </c>
-      <c r="AE9" s="53">
+      <c r="AE9" s="51">
         <v>17</v>
       </c>
-      <c r="AF9" s="53">
+      <c r="AF9" s="51">
         <v>18</v>
       </c>
-      <c r="AG9" s="53">
+      <c r="AG9" s="51">
         <v>19</v>
       </c>
-      <c r="AH9" s="51"/>
+      <c r="AH9" s="49"/>
       <c r="AI9" s="32"/>
       <c r="AJ9" s="36"/>
     </row>
@@ -1527,81 +1515,81 @@
       <c r="B10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="55">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="53">
         <v>1</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>1</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="46">
         <v>1</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="46">
         <v>1</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="46">
         <v>1</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="46">
         <v>1</v>
       </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="47">
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="46">
         <v>1</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="46">
         <v>1</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="46">
         <v>1</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="46">
         <v>1</v>
       </c>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="47">
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="46">
         <v>1</v>
       </c>
-      <c r="T10" s="47">
+      <c r="T10" s="46">
         <v>1</v>
       </c>
-      <c r="U10" s="47">
+      <c r="U10" s="46">
         <v>1</v>
       </c>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="47">
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="46">
         <v>1</v>
       </c>
-      <c r="AA10" s="47">
+      <c r="AA10" s="46">
         <v>1</v>
       </c>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="47">
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="46">
         <v>1</v>
       </c>
-      <c r="AD10" s="47">
+      <c r="AD10" s="46">
         <v>1</v>
       </c>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="47">
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="46">
         <v>1</v>
       </c>
-      <c r="AH10" s="48">
+      <c r="AH10" s="47">
         <f>SUM(C10:AG10)</f>
         <v>18</v>
       </c>
-      <c r="AI10" s="57" t="s">
+      <c r="AI10" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="AJ10" s="59"/>
+      <c r="AJ10" s="61"/>
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
@@ -1716,427 +1704,406 @@
     </row>
     <row r="11" spans="1:147" s="4" customFormat="1" ht="33" customHeight="1">
       <c r="A11" s="38"/>
-      <c r="B11" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48">
+      <c r="B11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="53">
+        <v>2</v>
+      </c>
+      <c r="F11" s="47">
+        <v>2</v>
+      </c>
+      <c r="G11" s="47">
+        <v>2</v>
+      </c>
+      <c r="H11" s="47">
+        <v>2</v>
+      </c>
+      <c r="I11" s="47">
+        <v>2</v>
+      </c>
+      <c r="J11" s="47">
+        <v>2</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="47">
+        <v>2</v>
+      </c>
+      <c r="N11" s="47">
+        <v>2</v>
+      </c>
+      <c r="O11" s="47">
+        <v>2</v>
+      </c>
+      <c r="P11" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="47">
+        <v>2</v>
+      </c>
+      <c r="T11" s="47">
+        <v>2</v>
+      </c>
+      <c r="U11" s="47">
+        <v>2</v>
+      </c>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="47">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="47">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="47">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="47">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="47">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="47">
         <f>SUM(C11:AG11)</f>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="60"/>
+        <v>36</v>
+      </c>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="62"/>
     </row>
     <row r="12" spans="1:147" s="4" customFormat="1" ht="33" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="55">
+      <c r="A12" s="38"/>
+      <c r="B12" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47">
         <v>2</v>
       </c>
-      <c r="F12" s="48">
+      <c r="U12" s="47"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="47">
         <v>2</v>
       </c>
-      <c r="G12" s="48">
-        <v>2</v>
-      </c>
-      <c r="H12" s="48">
-        <v>2</v>
-      </c>
-      <c r="I12" s="48">
-        <v>2</v>
-      </c>
-      <c r="J12" s="48">
-        <v>2</v>
-      </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="48">
-        <v>2</v>
-      </c>
-      <c r="N12" s="48">
-        <v>2</v>
-      </c>
-      <c r="O12" s="48">
-        <v>2</v>
-      </c>
-      <c r="P12" s="48">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="48">
-        <v>2</v>
-      </c>
-      <c r="T12" s="48">
-        <v>2</v>
-      </c>
-      <c r="U12" s="48">
-        <v>2</v>
-      </c>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48">
+      <c r="AH12" s="47">
         <f>SUM(C12:AG12)</f>
-        <v>26</v>
-      </c>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="60"/>
+        <v>4</v>
+      </c>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="62"/>
     </row>
     <row r="13" spans="1:147" s="4" customFormat="1" ht="33" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48">
-        <v>2</v>
-      </c>
-      <c r="U13" s="48"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48">
-        <f>SUM(C13:AG13)</f>
-        <v>2</v>
-      </c>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="60"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="53">
+        <v>5</v>
+      </c>
+      <c r="F13" s="47">
+        <v>5</v>
+      </c>
+      <c r="G13" s="47">
+        <v>5</v>
+      </c>
+      <c r="H13" s="47">
+        <v>5</v>
+      </c>
+      <c r="I13" s="47">
+        <v>5</v>
+      </c>
+      <c r="J13" s="47">
+        <v>5</v>
+      </c>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="47">
+        <v>5</v>
+      </c>
+      <c r="N13" s="47">
+        <v>5</v>
+      </c>
+      <c r="O13" s="47">
+        <v>5</v>
+      </c>
+      <c r="P13" s="47">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="47">
+        <v>5</v>
+      </c>
+      <c r="T13" s="47">
+        <v>3</v>
+      </c>
+      <c r="U13" s="47">
+        <v>5</v>
+      </c>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="47">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="47">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="47">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="47">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="47">
+        <f>SUM(C13:AF13)</f>
+        <v>83</v>
+      </c>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="62"/>
     </row>
-    <row r="14" spans="1:147" s="4" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="55">
-        <v>5</v>
+    <row r="14" spans="1:147" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="A14" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="57">
+        <f t="shared" ref="C14:AG14" si="0">SUM(C10:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="52">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F14" s="48">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="G14" s="48">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="H14" s="48">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="I14" s="48">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="J14" s="48">
-        <v>5</v>
-      </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M14" s="48">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="N14" s="48">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="O14" s="48">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="P14" s="48">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S14" s="48">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="T14" s="48">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="U14" s="48">
-        <v>5</v>
-      </c>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="48"/>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AA14" s="48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AB14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AD14" s="48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AE14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="AH14" s="48">
-        <f>SUM(C14:AF14)</f>
-        <v>63</v>
-      </c>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="60"/>
+        <f>SUM(C14:AG14)</f>
+        <v>144</v>
+      </c>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="42"/>
     </row>
-    <row r="15" spans="1:147" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="73">
-        <f t="shared" ref="C15:AG15" si="0">SUM(C10:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="54">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="T15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="U15" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="V15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA15" s="50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD15" s="50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AH15" s="50">
-        <f>SUM(C15:AG15)</f>
-        <v>109</v>
-      </c>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="43"/>
+    <row r="15" spans="1:147" ht="23.25" customHeight="1">
+      <c r="A15" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="44"/>
     </row>
-    <row r="16" spans="1:147" ht="23.25" customHeight="1">
-      <c r="A16" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="45"/>
+    <row r="16" spans="1:147" ht="14.5">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
     </row>
-    <row r="17" spans="1:32" ht="14.5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+    <row r="17" spans="32:32">
+      <c r="AF17" s="23"/>
     </row>
-    <row r="18" spans="1:32">
-      <c r="AF18" s="23"/>
+    <row r="18" spans="32:32">
+      <c r="AF18" s="24"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="32:32" ht="12.75" customHeight="1">
       <c r="AF19" s="24"/>
-    </row>
-    <row r="20" spans="1:32" ht="12.75" customHeight="1">
-      <c r="AF20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AI10:AI14"/>
-    <mergeCell ref="AJ10:AJ14"/>
+    <mergeCell ref="AI10:AI13"/>
+    <mergeCell ref="AJ10:AJ13"/>
     <mergeCell ref="C6:N6"/>
     <mergeCell ref="AB6:AG6"/>
     <mergeCell ref="S5:T5"/>
